--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDAA1AD-05C0-43B2-9C82-8F3AB8A5538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09731C6C-17DE-44B8-8610-03CAE5F6FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Compute unit assembly for the head, contains all parts fixed to the raspberry pi compute unit</t>
+  </si>
+  <si>
+    <t>Mechanical reference model for the costum made head pcb</t>
+  </si>
+  <si>
+    <t>H-CU-PCB</t>
+  </si>
+  <si>
+    <t>M-Toslink-Cable</t>
+  </si>
+  <si>
+    <t>Toslink cable reference model made by Steven Liu https://grabcad.com/library/optical-audio-connector-1</t>
+  </si>
+  <si>
+    <t>M-Terminal-Block-Socket</t>
+  </si>
+  <si>
+    <t>Reference model for a terminal block socket 3-way https://nl.farnell.com/phoenix-contact/1843619/connector-header-tht-3-5mm-3way/dp/3704828?MER=sy-me-pd-mi-acce</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B3ED9-A619-4A4D-95F9-8E1D3298BEF1}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +686,28 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -676,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D17333-4B97-4189-A48E-4DD548B2359C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +761,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09731C6C-17DE-44B8-8610-03CAE5F6FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400A208-1DC4-47FA-B78D-7CD0A1750C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>Reference model for a terminal block socket 3-way https://nl.farnell.com/phoenix-contact/1843619/connector-header-tht-3-5mm-3way/dp/3704828?MER=sy-me-pd-mi-acce</t>
+  </si>
+  <si>
+    <t>M-Rivet-Nut</t>
+  </si>
+  <si>
+    <t>Reference model for M4 rivet nut: https://uk.farnell.com/tr-fastenings/w-m4-rede-oe-st-kg/rivet-nut-steel-electro-zinc-cr3/dp/2983977</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>M-RP-CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part </t>
+  </si>
+  <si>
+    <t>Reference model for Raspberry Pi Camera Module 3: https://datasheets.raspberrypi.com/camera/camera-module-3-standard-mechanical-drawing.pdf</t>
+  </si>
+  <si>
+    <t>M-SmartDriveDuo-10</t>
+  </si>
+  <si>
+    <t>Reference model for SmartDriveDuo-10: https://docs.google.com/document/d/1ECKsH1WfgZLomwFoPQ8PlkUzVEm88A6Sup9X0wDBHKA/view</t>
+  </si>
+  <si>
+    <t>M-TL-FC111B-20</t>
+  </si>
+  <si>
+    <t>Reference model for TL-FC111B-20: https://www.tp-link.com/nl/business-networking/accessory/tl-fc111b-20/</t>
+  </si>
+  <si>
+    <t>M-12V-12Ah-Lead-Acid</t>
+  </si>
+  <si>
+    <t>Reference model for Multipower 12V 12Ah lead acid (4.8mm): https://eu.nkon.nl/rechargeable/lead-acid-batteries/12v-vrla/multipower-12v-12ah-48.html</t>
   </si>
 </sst>
 </file>
@@ -597,19 +633,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B3ED9-A619-4A4D-95F9-8E1D3298BEF1}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -631,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -642,7 +678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -653,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -664,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -675,7 +711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -686,7 +722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -697,7 +733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -706,6 +742,76 @@
       </c>
       <c r="C9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400A208-1DC4-47FA-B78D-7CD0A1750C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284A6EF-EFF5-4F78-AEFB-693832224DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -636,13 +636,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,9 +754,6 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -796,9 +793,6 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -809,9 +803,6 @@
       </c>
       <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284A6EF-EFF5-4F78-AEFB-693832224DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7546BA8F-761B-415D-9D1A-08E3F3ADFD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>Reference model for Multipower 12V 12Ah lead acid (4.8mm): https://eu.nkon.nl/rechargeable/lead-acid-batteries/12v-vrla/multipower-12v-12ah-48.html</t>
+  </si>
+  <si>
+    <t>M-12V-1A-Lead-Battery-Charger</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/battery-chargers/4784077</t>
+  </si>
+  <si>
+    <t>M-12V-Connector</t>
+  </si>
+  <si>
+    <t>size reference: https://nl.rs-online.com/web/p/dc-power-connectors/8787203</t>
+  </si>
+  <si>
+    <t>M-Emergency-Switch</t>
+  </si>
+  <si>
+    <t>https://www.conrad.nl/nl/p/tru-components-las1-by-11tsb-noodstopschakelaar-250-v-ac-3-a-1x-nc-1x-no-ip40-1-stuk-s-704766.html?refresh=true#productTechData</t>
+  </si>
+  <si>
+    <t>M-On-Off-Switch</t>
+  </si>
+  <si>
+    <t>https://www.conrad.nl/nl/p/arcolectric-bulgin-ltd-c6053alnah-wipschakelaar-c6053alnah-230-v-ac-16-a-2x-uit-aan-continu-1-stuk-s-701528.html</t>
   </si>
 </sst>
 </file>
@@ -633,15 +657,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B3ED9-A619-4A4D-95F9-8E1D3298BEF1}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,6 +827,50 @@
       </c>
       <c r="C14" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7546BA8F-761B-415D-9D1A-08E3F3ADFD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA094346-006F-47FA-8330-A00526670954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
-    <sheet name="Misc" sheetId="2" r:id="rId2"/>
-    <sheet name="Head" sheetId="3" r:id="rId3"/>
+    <sheet name="3d printed parts" sheetId="4" r:id="rId2"/>
+    <sheet name="Misc" sheetId="2" r:id="rId3"/>
+    <sheet name="Head" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -213,6 +214,99 @@
   </si>
   <si>
     <t>https://www.conrad.nl/nl/p/arcolectric-bulgin-ltd-c6053alnah-wipschakelaar-c6053alnah-230-v-ac-16-a-2x-uit-aan-continu-1-stuk-s-701528.html</t>
+  </si>
+  <si>
+    <t>Part name</t>
+  </si>
+  <si>
+    <t>Part description</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Amount required</t>
+  </si>
+  <si>
+    <t>Who will print</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Axle sleeve</t>
+  </si>
+  <si>
+    <t>End of truss used to attach to the axle inserted in the joint</t>
+  </si>
+  <si>
+    <t>Axle_Sleeve</t>
+  </si>
+  <si>
+    <t>Balancer joint</t>
+  </si>
+  <si>
+    <t>Small joint to which the balancer wire will be connected</t>
+  </si>
+  <si>
+    <t>Balancerjoint</t>
+  </si>
+  <si>
+    <t>Endcap</t>
+  </si>
+  <si>
+    <t>End of truss structure to which axle sleeve is connected</t>
+  </si>
+  <si>
+    <t>Endcap2</t>
+  </si>
+  <si>
+    <t>Diagonal eye</t>
+  </si>
+  <si>
+    <t>Diagonal conection point for the balancer system</t>
+  </si>
+  <si>
+    <t>Eyed</t>
+  </si>
+  <si>
+    <t>Joonas</t>
+  </si>
+  <si>
+    <t>Vertical triangle joint</t>
+  </si>
+  <si>
+    <t>Triangle joint</t>
+  </si>
+  <si>
+    <t>Diagonal triangle joint</t>
+  </si>
+  <si>
+    <t>Vertical eye</t>
+  </si>
+  <si>
+    <t>Triangle joint connecting pvc tubes together with attachement point for diagonal eye of the balancer system</t>
+  </si>
+  <si>
+    <t>Triangle joint connecting pvc tubes together with attachement point for vertical eye of the balancer system</t>
+  </si>
+  <si>
+    <t>Trianglejointdiag</t>
+  </si>
+  <si>
+    <t>Part connecting the three pvc tubes together</t>
+  </si>
+  <si>
+    <t>Trianglejoint2</t>
+  </si>
+  <si>
+    <t>Vertical connection point for the balancer system</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Trianglejointvert</t>
   </si>
 </sst>
 </file>
@@ -656,10 +750,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E6AF7E-C018-4777-9569-C2098E666BFB}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884B3ED9-A619-4A4D-95F9-8E1D3298BEF1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D17333-4B97-4189-A48E-4DD548B2359C}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA094346-006F-47FA-8330-A00526670954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6F9F61-B45E-479C-95BA-23156E82B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Trianglejointvert</t>
+  </si>
+  <si>
+    <t>Half should be mirrored</t>
   </si>
 </sst>
 </file>
@@ -751,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E6AF7E-C018-4777-9569-C2098E666BFB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +770,7 @@
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -787,7 +790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -801,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -815,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -831,8 +834,11 @@
       <c r="E4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -846,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -860,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -877,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -894,7 +900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -908,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>SUM(D2:D9)</f>
         <v>44</v>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6F9F61-B45E-479C-95BA-23156E82B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700E4F8-E618-4960-9C72-C4327D4C9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700E4F8-E618-4960-9C72-C4327D4C9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E3236-5CA6-419D-BFD3-5B07483B2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +817,9 @@
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -834,6 +837,9 @@
       <c r="E4" t="s">
         <v>80</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="G4" t="s">
         <v>93</v>
       </c>
@@ -898,6 +904,9 @@
       </c>
       <c r="E8" t="s">
         <v>80</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,7 +930,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E3236-5CA6-419D-BFD3-5B07483B2E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757DD8E-C3EE-479D-93F2-0F4AEAA98C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +820,9 @@
       <c r="E3" t="s">
         <v>80</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -930,7 +933,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757DD8E-C3EE-479D-93F2-0F4AEAA98C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993B0268-3E3D-44E3-938B-40E95C50217D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,13 +903,13 @@
         <v>91</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,11 +929,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>SUM(D2:D9)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993B0268-3E3D-44E3-938B-40E95C50217D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962BA58-DF42-482F-8956-0C0D8A5D0F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +835,13 @@
         <v>79</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>93</v>
@@ -929,11 +929,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>SUM(D2:D9)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962BA58-DF42-482F-8956-0C0D8A5D0F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7AF7A8-7976-4C53-BAD2-0AFABEC65A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
         <v>80</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>93</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7AF7A8-7976-4C53-BAD2-0AFABEC65A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D58F16-6A88-418C-A912-97C721B1BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +321,9 @@
   </si>
   <si>
     <t>Half should be mirrored</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
   </si>
 </sst>
 </file>
@@ -757,7 +771,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +888,12 @@
       <c r="D6">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -933,7 +953,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D58F16-6A88-418C-A912-97C721B1BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23462977-5AE9-4D92-AAFF-35C0F54E3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -771,7 +760,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +824,7 @@
         <v>80</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,7 +942,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23462977-5AE9-4D92-AAFF-35C0F54E3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D2B66-9DC9-401D-A744-9EBA70A13191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -760,7 +760,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +862,9 @@
       </c>
       <c r="D5">
         <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D2B66-9DC9-401D-A744-9EBA70A13191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C662710-4278-4EB8-9F24-814CF37774E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -760,7 +771,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +817,12 @@
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -884,7 +901,7 @@
         <v>94</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +962,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SolidworksFiles/BOM.xlsx
+++ b/SolidworksFiles/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code\RSA\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\GitHub\RSA-Substation-Inspection-Robot\SolidworksFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C662710-4278-4EB8-9F24-814CF37774E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407CCFF7-2875-4FBA-9935-D34C9A5BE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Level" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -771,7 +760,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +872,9 @@
       <c r="E5" t="s">
         <v>80</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -962,7 +954,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
